--- a/sds_3Dtest/.fluidanimate_3D.xlsx
+++ b/sds_3Dtest/.fluidanimate_3D.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20401"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20402"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E49D2627-FA29-4477-8D9C-0DA5044C14B7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4236B8D0-9A01-4E77-996B-5960956428BE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="res" sheetId="1" r:id="rId1"/>
@@ -1826,8 +1826,8 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="5.6838066242418057E-2"/>
-          <c:y val="0.10206954134132416"/>
+          <c:x val="4.8235932804342525E-2"/>
+          <c:y val="0.10206958871925045"/>
           <c:w val="0.91444683044325237"/>
           <c:h val="0.77307092246562858"/>
         </c:manualLayout>
@@ -3098,8 +3098,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="5.9516284514518993E-2"/>
-              <c:y val="0.38302685684489823"/>
+              <c:x val="0.90488386281091715"/>
+              <c:y val="0.43936482118138981"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -3328,16 +3328,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>109535</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>595310</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>85724</xdr:rowOff>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3369,16 +3369,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>142874</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>109541</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3673,7 +3673,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
@@ -4038,7 +4038,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F1A4983-9D84-494A-9F85-6F97553D5D7E}">
   <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
